--- a/Vendors1.xlsx
+++ b/Vendors1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BCD0B0-0C51-42FA-B8CC-5FBC508DA7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABD78AB-9AD1-4154-8C06-B1D5849F206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="3060" windowWidth="14565" windowHeight="8310" xr2:uid="{C9E09198-3273-43D0-80F1-1785A4FC44FA}"/>
+    <workbookView xWindow="8535" yWindow="4320" windowWidth="14565" windowHeight="8325" activeTab="3" xr2:uid="{C9E09198-3273-43D0-80F1-1785A4FC44FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Uber Eats" sheetId="2" r:id="rId2"/>
+    <sheet name="Target" sheetId="3" r:id="rId3"/>
+    <sheet name="Carvana" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Item1</t>
   </si>
@@ -77,34 +78,56 @@
     <t>Watch</t>
   </si>
   <si>
-    <t>Towel</t>
-  </si>
-  <si>
-    <t>Bike</t>
+    <t>FinalPrice1</t>
+  </si>
+  <si>
+    <t>FinalPrice2</t>
+  </si>
+  <si>
+    <t>FinalPrice3</t>
+  </si>
+  <si>
+    <t>Iphone 13</t>
+  </si>
+  <si>
+    <t>Baby Yoda</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Beef Steak</t>
+  </si>
+  <si>
+    <t>Red Wine</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>Tie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,19 +150,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,15 +471,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFD2AE1-BB4F-4376-8BA6-A00C2FAD6F69}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,66 +504,95 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>29.99</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>33.99</v>
       </c>
       <c r="D2">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>32.46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>140</v>
+      </c>
+      <c r="H2">
+        <v>199.99</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0.05</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2">
+        <v>199.99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>5.47</v>
+      </c>
+      <c r="N2">
+        <v>0.03</v>
+      </c>
+      <c r="O2">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>85</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="G5">
+        <v>139</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -543,26 +602,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BB14A7-E3DF-4334-A993-6303D8FD4EC7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>4.99</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>4.74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>13.99</v>
+      </c>
+      <c r="I2">
+        <v>0.15</v>
+      </c>
+      <c r="J2">
+        <v>11.89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>60</v>
+      </c>
+      <c r="M2">
+        <v>8.5</v>
+      </c>
+      <c r="N2">
+        <v>0.11</v>
+      </c>
+      <c r="O2">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4216A61C-90CB-48A4-B140-0B010F704211}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>10.14</v>
+      </c>
+      <c r="D2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>9.89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>11.27</v>
+      </c>
+      <c r="I2">
+        <v>0.02</v>
+      </c>
+      <c r="J2">
+        <v>11.04</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>2.99</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>495</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE9A690-485E-4F75-AF4B-EB2452250C40}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7990.95</v>
+      </c>
+      <c r="D2">
+        <v>0.15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6792.31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9000</v>
+      </c>
+      <c r="I2">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6750</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6450.17</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6450.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>